--- a/Layout_Geral.xlsx
+++ b/Layout_Geral.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernoulli-my.sharepoint.com/personal/felipe_nogueira_bernoulli_com_br/Documents/Área de Trabalho/Projeto_Impostos/impostos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Projeto_Layout_Contabil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{EA627B43-3C55-4F69-BF37-45AF0AF0B35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3032C7B9-27B8-4D46-B851-BE11CE93926E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CBBA46-E49E-4B67-8DD0-17C1649B0D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lancamentos" sheetId="1" r:id="rId1"/>
-    <sheet name="Cadastros" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -159,7 +158,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -182,7 +181,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RESUMO"/>
@@ -745,16 +744,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB64739-5452-4320-9FE3-6D8A45862E92}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>